--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_14.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_14.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_0</t>
+          <t>model_1_14_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999845965574031</v>
+        <v>0.9359522110072467</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8295698038852012</v>
+        <v>0.7442998312667992</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8223841063474402</v>
+        <v>0.6702472492555737</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997748140661765</v>
+        <v>0.9165433047357339</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0006411724103268813</v>
+        <v>0.2666006315554442</v>
       </c>
       <c r="G2" t="n">
-        <v>1.139667506178554</v>
+        <v>1.709868205709929</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6353217528339627</v>
+        <v>1.179506469249749</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0009013398317762671</v>
+        <v>0.2514426595251295</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05958462099886185</v>
+        <v>1.412888387075499</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02532138247266293</v>
+        <v>0.5163338373140426</v>
       </c>
       <c r="L2" t="n">
-        <v>1.009858203262013</v>
+        <v>0.9127859894566763</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02572016893451126</v>
+        <v>0.5244655791072618</v>
       </c>
       <c r="N2" t="n">
-        <v>144.704424332682</v>
+        <v>36.64400700463037</v>
       </c>
       <c r="O2" t="n">
-        <v>286.0395968758984</v>
+        <v>73.6085905928562</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_1</t>
+          <t>model_1_14_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998478127108452</v>
+        <v>0.9360059833370141</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8295614831309539</v>
+        <v>0.7438807322006779</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8223920479129705</v>
+        <v>0.6692386106076464</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999772025333715</v>
+        <v>0.9179423184698579</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006334836540255952</v>
+        <v>0.266376802797236</v>
       </c>
       <c r="G3" t="n">
-        <v>1.139723147100519</v>
+        <v>1.712670723094857</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6352933463145392</v>
+        <v>1.183114311209156</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0009125021437599103</v>
+        <v>0.2472276383946329</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05921929595163127</v>
+        <v>1.41462627674347</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02516910117635501</v>
+        <v>0.5161170436996205</v>
       </c>
       <c r="L3" t="n">
-        <v>1.009739986505906</v>
+        <v>0.9128592113525299</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02556548936001194</v>
+        <v>0.5242453712101267</v>
       </c>
       <c r="N3" t="n">
-        <v>144.7285527223582</v>
+        <v>36.64568684138848</v>
       </c>
       <c r="O3" t="n">
-        <v>286.0637252655745</v>
+        <v>73.6102704296143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_2</t>
+          <t>model_1_14_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998544250385268</v>
+        <v>0.9360152996790713</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8292878119347147</v>
+        <v>0.7437926859734345</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8216031531682932</v>
+        <v>0.6690224607326534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997468271485509</v>
+        <v>0.9182294186573369</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0006059596635223702</v>
+        <v>0.2663380232747062</v>
       </c>
       <c r="G4" t="n">
-        <v>1.141553187649911</v>
+        <v>1.713259488621848</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6381151770735043</v>
+        <v>1.183887466778916</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001013361587292942</v>
+        <v>0.246362648060888</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05720805229948187</v>
+        <v>1.415000207809949</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02461624795785032</v>
+        <v>0.5160794737971142</v>
       </c>
       <c r="L4" t="n">
-        <v>1.009316797534282</v>
+        <v>0.9128718974353311</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02500392925596627</v>
+        <v>0.524207209619212</v>
       </c>
       <c r="N4" t="n">
-        <v>144.8173942719091</v>
+        <v>36.6459780254945</v>
       </c>
       <c r="O4" t="n">
-        <v>286.1525668151256</v>
+        <v>73.61056161372032</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_3</t>
+          <t>model_1_14_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998555087184341</v>
+        <v>0.936073439033143</v>
       </c>
       <c r="C5" t="n">
-        <v>0.829262422878541</v>
+        <v>0.7424834085969101</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8215686560870097</v>
+        <v>0.6653947724739491</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997424759052339</v>
+        <v>0.9225030418942831</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0006014488169777564</v>
+        <v>0.2660960166612461</v>
       </c>
       <c r="G5" t="n">
-        <v>1.14172296438545</v>
+        <v>1.722014632467335</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6382385711329998</v>
+        <v>1.19686349733485</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001030778078868474</v>
+        <v>0.2334868543441163</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05681770390970212</v>
+        <v>1.424455578995228</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02452445344911394</v>
+        <v>0.5158449540910971</v>
       </c>
       <c r="L5" t="n">
-        <v>1.009247442020218</v>
+        <v>0.9129510659174713</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02491068907547813</v>
+        <v>0.5239689964622589</v>
       </c>
       <c r="N5" t="n">
-        <v>144.8323382369528</v>
+        <v>36.64779614088138</v>
       </c>
       <c r="O5" t="n">
-        <v>286.1675107801692</v>
+        <v>73.6123797291072</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_4</t>
+          <t>model_1_14_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998565439676865</v>
+        <v>0.9360707657283672</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8292411433211626</v>
+        <v>0.7423159706497577</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8216126327072276</v>
+        <v>0.6650855195961652</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997372458395071</v>
+        <v>0.9228258291440792</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0005971395643266234</v>
+        <v>0.266107144363744</v>
       </c>
       <c r="G6" t="n">
-        <v>1.141865260883622</v>
+        <v>1.723134290790923</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6380812693123912</v>
+        <v>1.197969676947171</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001051712186440798</v>
+        <v>0.2325143441783049</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05606453676775967</v>
+        <v>1.425367869384905</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02443643927266457</v>
+        <v>0.5158557398767062</v>
       </c>
       <c r="L6" t="n">
-        <v>1.009181186068062</v>
+        <v>0.9129474256726703</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02482128876373159</v>
+        <v>0.5239799521132095</v>
       </c>
       <c r="N6" t="n">
-        <v>144.8467193916031</v>
+        <v>36.64771250588396</v>
       </c>
       <c r="O6" t="n">
-        <v>286.1818919348195</v>
+        <v>73.61229609410978</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_5</t>
+          <t>model_1_14_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999855003613907</v>
+        <v>0.9360554031616759</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8289856428178979</v>
+        <v>0.7419818280935423</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8216195262981123</v>
+        <v>0.6641100878773678</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9996781768705555</v>
+        <v>0.9238074076587162</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0006035513280561577</v>
+        <v>0.2661710914577289</v>
       </c>
       <c r="G7" t="n">
-        <v>1.143573793925425</v>
+        <v>1.725368703602921</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6380566113375102</v>
+        <v>1.201458739646529</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001288144425497338</v>
+        <v>0.2295569935251125</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05108994417940489</v>
+        <v>1.428220803051609</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0245672816578505</v>
+        <v>0.5159177177203056</v>
       </c>
       <c r="L7" t="n">
-        <v>1.009279768709952</v>
+        <v>0.9129265064329204</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0249541917856898</v>
+        <v>0.5240429060458903</v>
       </c>
       <c r="N7" t="n">
-        <v>144.8253589408234</v>
+        <v>36.64723195199324</v>
       </c>
       <c r="O7" t="n">
-        <v>286.1605314840398</v>
+        <v>73.61181554021906</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_6</t>
+          <t>model_1_14_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998545357681152</v>
+        <v>0.9360475834018461</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8289298116385686</v>
+        <v>0.7418791783111646</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8215399466413853</v>
+        <v>0.6637683132267296</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9996692544993158</v>
+        <v>0.9241387742588067</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0006054987486547428</v>
+        <v>0.2662036414167829</v>
       </c>
       <c r="G8" t="n">
-        <v>1.143947137278679</v>
+        <v>1.72605512317034</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6383412631553287</v>
+        <v>1.202681247754628</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001323857529134434</v>
+        <v>0.2285586350478118</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05126671180101924</v>
+        <v>1.429213987760728</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02460688417201054</v>
+        <v>0.5159492624442668</v>
       </c>
       <c r="L8" t="n">
-        <v>1.009309710840625</v>
+        <v>0.9129158582493224</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02499441799985987</v>
+        <v>0.5240749475677209</v>
       </c>
       <c r="N8" t="n">
-        <v>144.8189161232091</v>
+        <v>36.64698738772612</v>
       </c>
       <c r="O8" t="n">
-        <v>286.1540886664255</v>
+        <v>73.61157097595193</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_7</t>
+          <t>model_1_14_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998431847174557</v>
+        <v>0.9359484018375118</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8287361554677013</v>
+        <v>0.7409512064140471</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8214258568733929</v>
+        <v>0.6611185790741212</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9995790260068255</v>
+        <v>0.9265126214228157</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0006527478000618502</v>
+        <v>0.2666164873261582</v>
       </c>
       <c r="G9" t="n">
-        <v>1.145242116984974</v>
+        <v>1.732260475519283</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6387493556401329</v>
+        <v>1.212159193178095</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001685010345661443</v>
+        <v>0.2214065852052614</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05165037719268138</v>
+        <v>1.436784743454811</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0255489295286877</v>
+        <v>0.5163491912709443</v>
       </c>
       <c r="L9" t="n">
-        <v>1.010036178082835</v>
+        <v>0.9127808025021438</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02595129962920482</v>
+        <v>0.5244811748736363</v>
       </c>
       <c r="N9" t="n">
-        <v>144.6686394413043</v>
+        <v>36.64388806043179</v>
       </c>
       <c r="O9" t="n">
-        <v>286.0038119845207</v>
+        <v>73.60847164865761</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_8</t>
+          <t>model_1_14_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998136404493674</v>
+        <v>0.9359268488981727</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8286414635737147</v>
+        <v>0.7408088878575594</v>
       </c>
       <c r="D10" t="n">
-        <v>0.820941525574979</v>
+        <v>0.6606998660120549</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9994106136981518</v>
+        <v>0.9268587559784263</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0007757266047179257</v>
+        <v>0.2667062020115527</v>
       </c>
       <c r="G10" t="n">
-        <v>1.145875322116078</v>
+        <v>1.733212160361832</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6404817806114169</v>
+        <v>1.213656905522728</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002359105389661783</v>
+        <v>0.2203637330657094</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05408472229036324</v>
+        <v>1.43796687258154</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02785186896274514</v>
+        <v>0.5164360580086877</v>
       </c>
       <c r="L10" t="n">
-        <v>1.011927011240488</v>
+        <v>0.9127514538187883</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0282905080572538</v>
+        <v>0.5245694096756643</v>
       </c>
       <c r="N10" t="n">
-        <v>144.3234208267317</v>
+        <v>36.64321518685612</v>
       </c>
       <c r="O10" t="n">
-        <v>285.6585933699481</v>
+        <v>73.60779877508195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_9</t>
+          <t>model_1_14_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998119444705356</v>
+        <v>0.9359031325982703</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8286298049448845</v>
+        <v>0.7406656693978835</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8209271856568767</v>
+        <v>0.6602702508576059</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9993972963441003</v>
+        <v>0.9272063393977159</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0007827861618825697</v>
+        <v>0.266804921743046</v>
       </c>
       <c r="G11" t="n">
-        <v>1.145953283420749</v>
+        <v>1.734169862861145</v>
       </c>
       <c r="H11" t="n">
-        <v>0.640533073666993</v>
+        <v>1.215193614019674</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002412410058637505</v>
+        <v>0.2193165157145276</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05372500965996049</v>
+        <v>1.439172557132896</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02797831592291734</v>
+        <v>0.5165316270501217</v>
       </c>
       <c r="L11" t="n">
-        <v>1.012035553885724</v>
+        <v>0.912719159282751</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02841894643064813</v>
+        <v>0.524666483833967</v>
       </c>
       <c r="N11" t="n">
-        <v>144.3053020006327</v>
+        <v>36.64247503559611</v>
       </c>
       <c r="O11" t="n">
-        <v>285.6404745438491</v>
+        <v>73.60705862382193</v>
       </c>
     </row>
   </sheetData>
